--- a/medicine/Handicap/Winter_(dauphin)/Winter_(dauphin).xlsx
+++ b/medicine/Handicap/Winter_(dauphin)/Winter_(dauphin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Winter, née le 5 octobre 2005 et morte le 11 novembre 2021[1], est un dauphin femelle de l'aquarium marin de Clearwater (en), à Clearwater en Floride. Elle est largement connue pour avoir été dotée d'une prothèse à la queue.
-Winter est trouvée au Mosquito Lagoon en Floride en décembre 2005, prise dans le cordage d'un piège à crabe. Cet accident a abouti à la perte de sa queue par manque de circulation sanguine[2]. Elle est ensuite emmenée à l'aquarium marin de Clearwater. La perte de sa queue l'empêche de nager normalement et en conséquence elle est équipée d'une prothèse de queue en silicone et en plastique grâce à Kevin Caroll (en). Elle vit dans sa piscine avec deux autres dauphins, Hope et PJ.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Winter, née le 5 octobre 2005 et morte le 11 novembre 2021, est un dauphin femelle de l'aquarium marin de Clearwater (en), à Clearwater en Floride. Elle est largement connue pour avoir été dotée d'une prothèse à la queue.
+Winter est trouvée au Mosquito Lagoon en Floride en décembre 2005, prise dans le cordage d'un piège à crabe. Cet accident a abouti à la perte de sa queue par manque de circulation sanguine. Elle est ensuite emmenée à l'aquarium marin de Clearwater. La perte de sa queue l'empêche de nager normalement et en conséquence elle est équipée d'une prothèse de queue en silicone et en plastique grâce à Kevin Caroll (en). Elle vit dans sa piscine avec deux autres dauphins, Hope et PJ.
 Elle est le sujet du livre Winter’s Tail: How One Little Dolphin Learned to Swim Again (2009) adapté en film L'Incroyable Histoire de Winter le dauphin (2011), puis présent dans la suite L'Incroyable Histoire de Winter le dauphin 2 (2014). Elle est souvent considérée comme une source d'inspiration pour les enfants et les adultes ayant des handicaps.
-Winter meurt le 11 novembre 2021 à l'age de 16 ans, « malgré les efforts déployés pour traiter un trouble gastro-intestinal » — un décès précoce, puisque les grands dauphins peuvent vivre jusqu'à 60 ans[3].
+Winter meurt le 11 novembre 2021 à l'age de 16 ans, « malgré les efforts déployés pour traiter un trouble gastro-intestinal » — un décès précoce, puisque les grands dauphins peuvent vivre jusqu'à 60 ans.
 </t>
         </is>
       </c>
